--- a/migforecasting/cities11-12/0/d4.xlsx
+++ b/migforecasting/cities11-12/0/d4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities11-12\0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="495">
   <si>
     <t>Волгоград</t>
   </si>
@@ -576,37 +576,6 @@
   </si>
   <si>
     <t>4,7</t>
-  </si>
-  <si>
-    <t>Численность детей, стоящих на учете 
-для определения в дошкольные образовательные организации, человек</t>
-  </si>
-  <si>
-    <t>27802</t>
-  </si>
-  <si>
-    <t>28240</t>
-  </si>
-  <si>
-    <t>25402</t>
-  </si>
-  <si>
-    <t>9261</t>
-  </si>
-  <si>
-    <t>9176</t>
-  </si>
-  <si>
-    <t>7292</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>2333</t>
   </si>
   <si>
     <t>Численность врачей, человек :</t>
@@ -1920,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="H2" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -2815,39 +2784,39 @@
       <c r="B28" t="s">
         <v>184</v>
       </c>
-      <c r="C28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" t="s">
-        <v>189</v>
-      </c>
-      <c r="H28" t="s">
-        <v>190</v>
-      </c>
-      <c r="I28" t="s">
-        <v>191</v>
-      </c>
-      <c r="J28" t="s">
-        <v>192</v>
-      </c>
-      <c r="K28" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2874,16 +2843,16 @@
         <v>200</v>
       </c>
       <c r="H30" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" t="s">
         <v>201</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>202</v>
-      </c>
-      <c r="J30" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2891,34 +2860,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" t="s">
-        <v>210</v>
-      </c>
-      <c r="H31" t="s">
-        <v>180</v>
-      </c>
-      <c r="I31" t="s">
-        <v>149</v>
-      </c>
-      <c r="J31" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2926,7 +2868,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2937,31 +2906,31 @@
         <v>195</v>
       </c>
       <c r="C33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" t="s">
         <v>214</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>215</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>216</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>217</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>218</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>219</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>220</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>221</v>
-      </c>
-      <c r="K33" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2969,7 +2938,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
         <v>223</v>
@@ -2978,25 +2947,25 @@
         <v>224</v>
       </c>
       <c r="E34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
         <v>225</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>226</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>227</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>228</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" t="s">
         <v>229</v>
-      </c>
-      <c r="J34" t="s">
-        <v>230</v>
-      </c>
-      <c r="K34" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3004,34 +2973,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35" t="s">
-        <v>235</v>
-      </c>
-      <c r="G35" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" t="s">
-        <v>237</v>
-      </c>
-      <c r="I35" t="s">
-        <v>238</v>
-      </c>
-      <c r="J35" t="s">
-        <v>238</v>
-      </c>
-      <c r="K35" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3039,6 +2981,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3047,34 +3016,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" t="s">
         <v>241</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>242</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" t="s">
         <v>243</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>244</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>245</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" t="s">
         <v>246</v>
       </c>
-      <c r="H37" t="s">
+      <c r="K37" t="s">
         <v>247</v>
-      </c>
-      <c r="I37" t="s">
-        <v>248</v>
-      </c>
-      <c r="J37" t="s">
-        <v>249</v>
-      </c>
-      <c r="K37" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3082,28 +3051,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="C38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" t="s">
         <v>251</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>252</v>
       </c>
-      <c r="E38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>253</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>254</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>255</v>
-      </c>
-      <c r="I38" t="s">
-        <v>227</v>
       </c>
       <c r="J38" t="s">
         <v>256</v>
@@ -3119,40 +3088,40 @@
       <c r="B39" t="s">
         <v>258</v>
       </c>
-      <c r="C39" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" t="s">
-        <v>261</v>
-      </c>
-      <c r="F39" t="s">
-        <v>262</v>
-      </c>
-      <c r="G39" t="s">
-        <v>263</v>
-      </c>
-      <c r="H39" t="s">
-        <v>264</v>
-      </c>
-      <c r="I39" t="s">
-        <v>265</v>
-      </c>
-      <c r="J39" t="s">
-        <v>266</v>
-      </c>
-      <c r="K39" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>231</v>
+      </c>
+      <c r="C40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" t="s">
+        <v>263</v>
+      </c>
+      <c r="I40" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" t="s">
+        <v>264</v>
+      </c>
+      <c r="K40" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3160,34 +3129,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G41" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" t="s">
         <v>269</v>
       </c>
-      <c r="D41" t="s">
+      <c r="I41" t="s">
         <v>270</v>
       </c>
-      <c r="E41" t="s">
+      <c r="J41" t="s">
         <v>271</v>
       </c>
-      <c r="F41" t="s">
+      <c r="K41" t="s">
         <v>272</v>
-      </c>
-      <c r="G41" t="s">
-        <v>273</v>
-      </c>
-      <c r="H41" t="s">
-        <v>273</v>
-      </c>
-      <c r="I41" t="s">
-        <v>274</v>
-      </c>
-      <c r="J41" t="s">
-        <v>274</v>
-      </c>
-      <c r="K41" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3195,10 +3164,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
         <v>275</v>
@@ -3216,13 +3185,13 @@
         <v>279</v>
       </c>
       <c r="I42" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="J42" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="K42" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3230,25 +3199,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" t="s">
+        <v>282</v>
+      </c>
+      <c r="E43" t="s">
         <v>283</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
         <v>284</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>286</v>
-      </c>
-      <c r="F43" t="s">
-        <v>287</v>
-      </c>
-      <c r="G43" t="s">
-        <v>288</v>
-      </c>
-      <c r="H43" t="s">
-        <v>289</v>
       </c>
       <c r="I43" t="s">
         <v>111</v>
@@ -3265,34 +3234,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F44" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H44" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="I44" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="J44" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="K44" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3300,31 +3269,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D45" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E45" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G45" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H45" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K45" t="s">
         <v>297</v>
@@ -3408,31 +3377,31 @@
         <v>318</v>
       </c>
       <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
         <v>319</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>320</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>321</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>322</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>323</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>324</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" t="s">
         <v>325</v>
-      </c>
-      <c r="J48" t="s">
-        <v>326</v>
-      </c>
-      <c r="K48" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3440,34 +3409,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F49" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H49" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I49" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="J49" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3475,31 +3444,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D50" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E50" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G50" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K50" t="s">
         <v>336</v>
@@ -3513,31 +3482,31 @@
         <v>337</v>
       </c>
       <c r="C51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G51" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H51" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="I51" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J51" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3545,34 +3514,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>347</v>
-      </c>
-      <c r="C52" t="s">
-        <v>347</v>
-      </c>
-      <c r="D52" t="s">
-        <v>347</v>
-      </c>
-      <c r="E52" t="s">
-        <v>347</v>
-      </c>
-      <c r="F52" t="s">
-        <v>347</v>
-      </c>
-      <c r="G52" t="s">
-        <v>347</v>
-      </c>
-      <c r="H52" t="s">
-        <v>347</v>
-      </c>
-      <c r="I52" t="s">
-        <v>347</v>
-      </c>
-      <c r="J52" t="s">
-        <v>347</v>
-      </c>
-      <c r="K52" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3580,7 +3522,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" t="s">
+        <v>340</v>
+      </c>
+      <c r="F53" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" t="s">
+        <v>341</v>
+      </c>
+      <c r="H53" t="s">
+        <v>342</v>
+      </c>
+      <c r="I53" t="s">
+        <v>343</v>
+      </c>
+      <c r="J53" t="s">
+        <v>343</v>
+      </c>
+      <c r="K53" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3588,28 +3557,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" t="s">
+        <v>347</v>
+      </c>
+      <c r="E54" t="s">
+        <v>348</v>
+      </c>
+      <c r="F54" t="s">
         <v>349</v>
       </c>
-      <c r="C54" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" t="s">
-        <v>265</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>350</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="G54" t="s">
-        <v>351</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>352</v>
-      </c>
-      <c r="I54" t="s">
-        <v>353</v>
       </c>
       <c r="J54" t="s">
         <v>353</v>
@@ -3638,19 +3607,19 @@
         <v>359</v>
       </c>
       <c r="G55" t="s">
+        <v>359</v>
+      </c>
+      <c r="H55" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" t="s">
+        <v>257</v>
+      </c>
+      <c r="J55" t="s">
+        <v>255</v>
+      </c>
+      <c r="K55" t="s">
         <v>360</v>
-      </c>
-      <c r="H55" t="s">
-        <v>361</v>
-      </c>
-      <c r="I55" t="s">
-        <v>362</v>
-      </c>
-      <c r="J55" t="s">
-        <v>363</v>
-      </c>
-      <c r="K55" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3658,34 +3627,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
-      </c>
-      <c r="C56" t="s">
-        <v>366</v>
-      </c>
-      <c r="D56" t="s">
-        <v>367</v>
-      </c>
-      <c r="E56" t="s">
-        <v>368</v>
-      </c>
-      <c r="F56" t="s">
-        <v>369</v>
-      </c>
-      <c r="G56" t="s">
-        <v>369</v>
-      </c>
-      <c r="H56" t="s">
-        <v>165</v>
-      </c>
-      <c r="I56" t="s">
-        <v>267</v>
-      </c>
-      <c r="J56" t="s">
-        <v>265</v>
-      </c>
-      <c r="K56" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3693,7 +3635,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>339</v>
+      </c>
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" t="s">
+        <v>363</v>
+      </c>
+      <c r="E57" t="s">
+        <v>364</v>
+      </c>
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>365</v>
+      </c>
+      <c r="H57" t="s">
+        <v>365</v>
+      </c>
+      <c r="I57" t="s">
+        <v>365</v>
+      </c>
+      <c r="J57" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3701,31 +3670,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C58" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" t="s">
+        <v>368</v>
+      </c>
+      <c r="E58" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" t="s">
+        <v>371</v>
+      </c>
+      <c r="H58" t="s">
         <v>372</v>
       </c>
-      <c r="D58" t="s">
+      <c r="I58" t="s">
         <v>373</v>
       </c>
-      <c r="E58" t="s">
+      <c r="J58" t="s">
         <v>374</v>
-      </c>
-      <c r="F58" t="s">
-        <v>375</v>
-      </c>
-      <c r="G58" t="s">
-        <v>375</v>
-      </c>
-      <c r="H58" t="s">
-        <v>375</v>
-      </c>
-      <c r="I58" t="s">
-        <v>375</v>
-      </c>
-      <c r="J58" t="s">
-        <v>376</v>
       </c>
       <c r="K58" t="s">
         <v>375</v>
@@ -3739,31 +3708,31 @@
         <v>355</v>
       </c>
       <c r="C59" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" t="s">
         <v>377</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>378</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>379</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>380</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>381</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>382</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>383</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>384</v>
-      </c>
-      <c r="K59" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3771,34 +3740,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E60" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F60" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G60" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H60" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I60" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="J60" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K60" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3806,31 +3775,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D61" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F61" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G61" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H61" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I61" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K61" t="s">
         <v>395</v>
@@ -3843,39 +3812,39 @@
       <c r="B62" t="s">
         <v>396</v>
       </c>
-      <c r="C62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D62" t="s">
-        <v>398</v>
-      </c>
-      <c r="E62" t="s">
-        <v>399</v>
-      </c>
-      <c r="F62" t="s">
-        <v>400</v>
-      </c>
-      <c r="G62" t="s">
-        <v>401</v>
-      </c>
-      <c r="H62" t="s">
-        <v>402</v>
-      </c>
-      <c r="I62" t="s">
-        <v>403</v>
-      </c>
-      <c r="J62" t="s">
-        <v>404</v>
-      </c>
-      <c r="K62" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" t="s">
+        <v>398</v>
+      </c>
+      <c r="D63" t="s">
+        <v>399</v>
+      </c>
+      <c r="E63" t="s">
+        <v>400</v>
+      </c>
+      <c r="F63" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>402</v>
+      </c>
+      <c r="H63" t="s">
+        <v>403</v>
+      </c>
+      <c r="I63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K63" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3922,67 +3891,37 @@
         <v>417</v>
       </c>
       <c r="C65" t="s">
+        <v>365</v>
+      </c>
+      <c r="D65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65" t="s">
+        <v>366</v>
+      </c>
+      <c r="F65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G65" t="s">
+        <v>366</v>
+      </c>
+      <c r="H65" t="s">
         <v>418</v>
       </c>
-      <c r="D65" t="s">
-        <v>419</v>
-      </c>
-      <c r="E65" t="s">
-        <v>420</v>
-      </c>
-      <c r="F65" t="s">
-        <v>421</v>
-      </c>
-      <c r="G65" t="s">
-        <v>422</v>
-      </c>
-      <c r="H65" t="s">
-        <v>423</v>
-      </c>
       <c r="I65" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="J65" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="K65" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>427</v>
-      </c>
-      <c r="C66" t="s">
-        <v>375</v>
-      </c>
-      <c r="D66" t="s">
-        <v>376</v>
-      </c>
-      <c r="E66" t="s">
-        <v>376</v>
-      </c>
-      <c r="F66" t="s">
-        <v>376</v>
-      </c>
-      <c r="G66" t="s">
-        <v>376</v>
-      </c>
-      <c r="H66" t="s">
-        <v>428</v>
-      </c>
-      <c r="I66" t="s">
-        <v>376</v>
-      </c>
-      <c r="J66" t="s">
-        <v>376</v>
-      </c>
-      <c r="K66" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -3999,34 +3938,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="J69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="K69" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4034,34 +3973,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D70" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="E70" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F70" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G70" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H70" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I70" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="J70" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K70" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4069,34 +4008,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C71" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D71" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E71" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F71" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G71" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H71" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I71" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="J71" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K71" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4104,34 +4043,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C72" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D72" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E72" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F72" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G72" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H72" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="I72" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="J72" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="K72" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4139,34 +4078,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C73" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D73" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E73" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F73" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G73" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H73" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="I73" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="J73" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="K73" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4174,34 +4113,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="E74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="H74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="I74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="J74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="K74" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4209,34 +4148,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C75" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D75" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E75" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F75" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G75" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H75" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="I75" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="J75" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K75" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4244,34 +4183,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C76" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D76" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E76" t="s">
         <v>66</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G76" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="H76" t="s">
         <v>68</v>
       </c>
       <c r="I76" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="J76" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="K76" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4279,7 +4218,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4287,34 +4226,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C78" t="s">
         <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E78" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F78" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G78" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H78" t="s">
         <v>63</v>
       </c>
       <c r="I78" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="J78" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="K78" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4322,34 +4261,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C79" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D79" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E79" t="s">
         <v>174</v>
       </c>
       <c r="F79" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G79" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H79" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="I79" t="s">
         <v>181</v>
       </c>
       <c r="J79" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="K79" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4357,34 +4296,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="J80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K80" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/migforecasting/cities11-12/0/d4.xlsx
+++ b/migforecasting/cities11-12/0/d4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="495">
   <si>
     <t>Волгоград</t>
   </si>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,14 +2479,14 @@
       <c r="H18" t="s">
         <v>118</v>
       </c>
-      <c r="I18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" t="s">
-        <v>111</v>
+      <c r="I18">
+        <v>660</v>
+      </c>
+      <c r="J18">
+        <v>540</v>
+      </c>
+      <c r="K18">
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
